--- a/data/database/Power_Demand.xlsx
+++ b/data/database/Power_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BEBAE-F900-4991-BEA3-6A4D0F4EE43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAF4884-78C2-4AF7-AA81-B2C197B9A69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5835" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="4" r:id="rId1"/>
@@ -411,9 +411,6 @@
     <t>dataSource</t>
   </si>
   <si>
-    <t>Which package this node belongs to</t>
-  </si>
-  <si>
     <t>Where the data for the entry comes from</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
   </si>
   <si>
     <t>v0.0.2</t>
+  </si>
+  <si>
+    <t>Which package this belongs to</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -680,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1043,7 +1046,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
@@ -1224,7 +1227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
@@ -1235,12 +1238,12 @@
         <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="18" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="6"/>
@@ -1278,10 +1281,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>50</v>
@@ -1367,10 +1370,10 @@
         <v>54</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>41</v>
@@ -1454,10 +1457,10 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G8" s="11">
         <v>574.27430000000004</v>
@@ -1541,10 +1544,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G9" s="11">
         <v>267.99470000000002</v>
@@ -1628,10 +1631,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G10" s="11">
         <v>382.84960000000001</v>
@@ -1715,10 +1718,10 @@
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="11">
         <v>765.69910000000004</v>
@@ -1802,10 +1805,10 @@
         <v>35</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G12" s="11">
         <v>191.4248</v>
@@ -1889,10 +1892,10 @@
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G13" s="11">
         <v>957.12390000000005</v>
@@ -1976,10 +1979,10 @@
         <v>37</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G14" s="11">
         <v>306.27960000000002</v>
@@ -2063,10 +2066,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="11">
         <v>191.4248</v>
@@ -2150,10 +2153,10 @@
         <v>39</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="11">
         <v>191.4248</v>
@@ -2237,10 +2240,10 @@
         <v>31</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G17" s="11">
         <v>489.00229999999999</v>
@@ -2324,10 +2327,10 @@
         <v>32</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G18" s="11">
         <v>228.2011</v>
@@ -2411,10 +2414,10 @@
         <v>33</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="11">
         <v>326.00150000000002</v>
@@ -2498,10 +2501,10 @@
         <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G20" s="11">
         <v>652.00310000000002</v>
@@ -2585,10 +2588,10 @@
         <v>35</v>
       </c>
       <c r="E21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G21" s="11">
         <v>163.0008</v>
@@ -2672,10 +2675,10 @@
         <v>36</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G22" s="11">
         <v>815.00390000000004</v>
@@ -2759,10 +2762,10 @@
         <v>37</v>
       </c>
       <c r="E23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G23" s="11">
         <v>260.80119999999999</v>
@@ -2846,10 +2849,10 @@
         <v>38</v>
       </c>
       <c r="E24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G24" s="11">
         <v>163.0008</v>
@@ -2933,10 +2936,10 @@
         <v>39</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="11">
         <v>163.0008</v>
@@ -3020,10 +3023,10 @@
         <v>31</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="11">
         <v>518.46180000000004</v>
@@ -3107,10 +3110,10 @@
         <v>32</v>
       </c>
       <c r="E27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G27" s="11">
         <v>241.94890000000001</v>
@@ -3194,10 +3197,10 @@
         <v>33</v>
       </c>
       <c r="E28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G28" s="11">
         <v>345.64120000000003</v>
@@ -3281,10 +3284,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G29" s="11">
         <v>691.28240000000005</v>
@@ -3368,10 +3371,10 @@
         <v>35</v>
       </c>
       <c r="E30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G30" s="11">
         <v>172.82060000000001</v>
@@ -3455,10 +3458,10 @@
         <v>36</v>
       </c>
       <c r="E31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G31" s="11">
         <v>864.10310000000004</v>
@@ -3542,10 +3545,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G32" s="11">
         <v>276.51299999999998</v>
@@ -3629,10 +3632,10 @@
         <v>38</v>
       </c>
       <c r="E33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G33" s="11">
         <v>172.82060000000001</v>
@@ -3716,10 +3719,10 @@
         <v>39</v>
       </c>
       <c r="E34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G34" s="11">
         <v>172.82060000000001</v>
@@ -3803,10 +3806,10 @@
         <v>31</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="11">
         <v>541.28980000000001</v>
@@ -3890,10 +3893,10 @@
         <v>32</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="11">
         <v>252.6019</v>
@@ -3977,10 +3980,10 @@
         <v>33</v>
       </c>
       <c r="E37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G37" s="11">
         <v>360.85989999999998</v>
@@ -4064,10 +4067,10 @@
         <v>34</v>
       </c>
       <c r="E38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G38" s="11">
         <v>721.71969999999999</v>
@@ -4151,10 +4154,10 @@
         <v>35</v>
       </c>
       <c r="E39" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G39" s="11">
         <v>180.4299</v>
@@ -4238,10 +4241,10 @@
         <v>36</v>
       </c>
       <c r="E40" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G40" s="11">
         <v>902.14970000000005</v>
@@ -4325,10 +4328,10 @@
         <v>37</v>
       </c>
       <c r="E41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G41" s="11">
         <v>288.68790000000001</v>
@@ -4412,10 +4415,10 @@
         <v>38</v>
       </c>
       <c r="E42" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G42" s="11">
         <v>180.4299</v>
@@ -4499,10 +4502,10 @@
         <v>39</v>
       </c>
       <c r="E43" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G43" s="11">
         <v>180.4299</v>
@@ -4586,10 +4589,10 @@
         <v>31</v>
       </c>
       <c r="E44" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G44" s="11">
         <v>482.32089999999999</v>
@@ -4673,10 +4676,10 @@
         <v>32</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="11">
         <v>225.0831</v>
@@ -4760,10 +4763,10 @@
         <v>33</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="11">
         <v>321.54719999999998</v>
@@ -4847,10 +4850,10 @@
         <v>34</v>
       </c>
       <c r="E47" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G47" s="11">
         <v>643.09450000000004</v>
@@ -4934,10 +4937,10 @@
         <v>35</v>
       </c>
       <c r="E48" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G48" s="11">
         <v>160.77359999999999</v>
@@ -5021,10 +5024,10 @@
         <v>36</v>
       </c>
       <c r="E49" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G49" s="11">
         <v>803.86810000000003</v>
@@ -5108,10 +5111,10 @@
         <v>37</v>
       </c>
       <c r="E50" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G50" s="11">
         <v>257.23779999999999</v>
@@ -5195,10 +5198,10 @@
         <v>38</v>
       </c>
       <c r="E51" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G51" s="11">
         <v>160.77359999999999</v>
@@ -5282,10 +5285,10 @@
         <v>39</v>
       </c>
       <c r="E52" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G52" s="11">
         <v>160.77359999999999</v>
@@ -5369,10 +5372,10 @@
         <v>31</v>
       </c>
       <c r="E53" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G53" s="11">
         <v>570.17970000000003</v>
@@ -5456,10 +5459,10 @@
         <v>32</v>
       </c>
       <c r="E54" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G54" s="11">
         <v>266.0838</v>
@@ -5543,10 +5546,10 @@
         <v>33</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" s="11">
         <v>380.1198</v>
@@ -5630,10 +5633,10 @@
         <v>34</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="11">
         <v>760.23950000000002</v>
@@ -5717,10 +5720,10 @@
         <v>35</v>
       </c>
       <c r="E57" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G57" s="11">
         <v>190.0599</v>
@@ -5804,10 +5807,10 @@
         <v>36</v>
       </c>
       <c r="E58" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G58" s="11">
         <v>950.29939999999999</v>
@@ -5891,10 +5894,10 @@
         <v>37</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="11">
         <v>304.0958</v>
@@ -5978,10 +5981,10 @@
         <v>38</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60" s="11">
         <v>190.0599</v>
@@ -6065,10 +6068,10 @@
         <v>39</v>
       </c>
       <c r="E61" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G61" s="11">
         <v>190.0599</v>
@@ -6152,10 +6155,10 @@
         <v>31</v>
       </c>
       <c r="E62" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G62" s="11">
         <v>556.65830000000005</v>
@@ -6239,10 +6242,10 @@
         <v>32</v>
       </c>
       <c r="E63" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G63" s="11">
         <v>259.77390000000003</v>
@@ -6326,10 +6329,10 @@
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G64" s="11">
         <v>371.10550000000001</v>
@@ -6413,10 +6416,10 @@
         <v>34</v>
       </c>
       <c r="E65" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G65" s="11">
         <v>742.21109999999999</v>
@@ -6500,10 +6503,10 @@
         <v>35</v>
       </c>
       <c r="E66" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G66" s="11">
         <v>185.55279999999999</v>
@@ -6587,10 +6590,10 @@
         <v>36</v>
       </c>
       <c r="E67" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G67" s="11">
         <v>927.76390000000004</v>
@@ -6674,10 +6677,10 @@
         <v>37</v>
       </c>
       <c r="E68" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G68" s="11">
         <v>296.88440000000003</v>
@@ -6761,10 +6764,10 @@
         <v>38</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G69" s="11">
         <v>185.55279999999999</v>
@@ -6848,10 +6851,10 @@
         <v>39</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G70" s="11">
         <v>185.55279999999999</v>
@@ -6955,8 +6958,9 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -6985,7 +6989,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
@@ -7166,7 +7170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
@@ -7177,12 +7181,12 @@
         <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="18" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="6"/>
@@ -7220,10 +7224,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>50</v>
@@ -7309,10 +7313,10 @@
         <v>54</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>41</v>
@@ -7396,10 +7400,10 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G8" s="11">
         <v>559.80862651950383</v>
@@ -7483,10 +7487,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G9" s="11">
         <v>279.20109974255246</v>
@@ -7570,10 +7574,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="11">
         <v>401.77868140608814</v>
@@ -7657,10 +7661,10 @@
         <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="11">
         <v>776.47571107500914</v>
@@ -7744,10 +7748,10 @@
         <v>35</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G12" s="11">
         <v>195.26711027462579</v>
@@ -7831,10 +7835,10 @@
         <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G13" s="11">
         <v>950.12932950363552</v>
@@ -7918,10 +7922,10 @@
         <v>37</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G14" s="11">
         <v>298.90118403582045</v>
@@ -8005,10 +8009,10 @@
         <v>38</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="11">
         <v>193.56328367520618</v>
@@ -8092,10 +8096,10 @@
         <v>39</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="11">
         <v>188.66637777024096</v>
@@ -8179,10 +8183,10 @@
         <v>31</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G17" s="11">
         <v>486.93122366265027</v>
@@ -8266,10 +8270,10 @@
         <v>32</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G18" s="11">
         <v>222.33244236119126</v>
@@ -8353,10 +8357,10 @@
         <v>33</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="11">
         <v>328.76550155351572</v>
@@ -8440,10 +8444,10 @@
         <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="11">
         <v>663.8887279409339</v>
@@ -8527,10 +8531,10 @@
         <v>35</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="11">
         <v>159.99277705464812</v>
@@ -8614,10 +8618,10 @@
         <v>36</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="11">
         <v>804.15712725479682</v>
@@ -8701,10 +8705,10 @@
         <v>37</v>
       </c>
       <c r="E23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G23" s="11">
         <v>259.5777007779464</v>
@@ -8788,10 +8792,10 @@
         <v>38</v>
       </c>
       <c r="E24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G24" s="11">
         <v>158.25077838309608</v>
@@ -8875,10 +8879,10 @@
         <v>39</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="11">
         <v>162.20440393359684</v>
@@ -8962,10 +8966,10 @@
         <v>31</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="11">
         <v>498.0907180247313</v>
@@ -9049,10 +9053,10 @@
         <v>32</v>
       </c>
       <c r="E27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G27" s="11">
         <v>232.57279832675746</v>
@@ -9136,10 +9140,10 @@
         <v>33</v>
       </c>
       <c r="E28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G28" s="11">
         <v>344.741387229537</v>
@@ -9223,10 +9227,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="11">
         <v>721.89394376694133</v>
@@ -9310,10 +9314,10 @@
         <v>35</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="11">
         <v>181.37789164473719</v>
@@ -9397,10 +9401,10 @@
         <v>36</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="11">
         <v>865.79779142728523</v>
@@ -9484,10 +9488,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="11">
         <v>271.92305208527762</v>
@@ -9571,10 +9575,10 @@
         <v>38</v>
       </c>
       <c r="E33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G33" s="11">
         <v>164.84049485864116</v>
@@ -9658,10 +9662,10 @@
         <v>39</v>
       </c>
       <c r="E34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G34" s="11">
         <v>172.91688240341139</v>
@@ -9745,10 +9749,10 @@
         <v>31</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="11">
         <v>547.47626540701117</v>
@@ -9832,10 +9836,10 @@
         <v>32</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="11">
         <v>250.96013080299016</v>
@@ -9919,10 +9923,10 @@
         <v>33</v>
       </c>
       <c r="E37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G37" s="11">
         <v>373.12939386797547</v>
@@ -10006,10 +10010,10 @@
         <v>34</v>
       </c>
       <c r="E38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G38" s="11">
         <v>749.51334295794641</v>
@@ -10093,10 +10097,10 @@
         <v>35</v>
       </c>
       <c r="E39" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G39" s="11">
         <v>186.43292894383242</v>
@@ -10180,10 +10184,10 @@
         <v>36</v>
       </c>
       <c r="E40" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G40" s="11">
         <v>897.07146668461905</v>
@@ -10267,10 +10271,10 @@
         <v>37</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" s="11">
         <v>278.92655919825137</v>
@@ -10354,10 +10358,10 @@
         <v>38</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="11">
         <v>188.41045643705453</v>
@@ -10441,10 +10445,10 @@
         <v>39</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43" s="11">
         <v>172.57183468538241</v>
@@ -10528,10 +10532,10 @@
         <v>31</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="11">
         <v>498.62187119439039</v>
@@ -10615,10 +10619,10 @@
         <v>32</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="11">
         <v>224.52954366408102</v>
@@ -10702,10 +10706,10 @@
         <v>33</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="11">
         <v>310.38824392735933</v>
@@ -10789,10 +10793,10 @@
         <v>34</v>
       </c>
       <c r="E47" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G47" s="11">
         <v>674.15453553702696</v>
@@ -10876,10 +10880,10 @@
         <v>35</v>
       </c>
       <c r="E48" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G48" s="11">
         <v>162.31107846789973</v>
@@ -10963,10 +10967,10 @@
         <v>36</v>
       </c>
       <c r="E49" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G49" s="11">
         <v>822.28834162270618</v>
@@ -11050,10 +11054,10 @@
         <v>37</v>
       </c>
       <c r="E50" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G50" s="11">
         <v>263.15335563280001</v>
@@ -11137,10 +11141,10 @@
         <v>38</v>
       </c>
       <c r="E51" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G51" s="11">
         <v>154.95260692503811</v>
@@ -11224,10 +11228,10 @@
         <v>39</v>
       </c>
       <c r="E52" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G52" s="11">
         <v>152.82058968990324</v>
@@ -11311,10 +11315,10 @@
         <v>31</v>
       </c>
       <c r="E53" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G53" s="11">
         <v>565.80546137825684</v>
@@ -11398,10 +11402,10 @@
         <v>32</v>
       </c>
       <c r="E54" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G54" s="11">
         <v>257.6349786753633</v>
@@ -11485,10 +11489,10 @@
         <v>33</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" s="11">
         <v>396.89009270363727</v>
@@ -11572,10 +11576,10 @@
         <v>34</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="11">
         <v>773.81926014989824</v>
@@ -11659,10 +11663,10 @@
         <v>35</v>
       </c>
       <c r="E57" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G57" s="11">
         <v>192.44887310502457</v>
@@ -11746,10 +11750,10 @@
         <v>36</v>
       </c>
       <c r="E58" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G58" s="11">
         <v>972.19226634428742</v>
@@ -11833,10 +11837,10 @@
         <v>37</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="11">
         <v>311.98966055378099</v>
@@ -11920,10 +11924,10 @@
         <v>38</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60" s="11">
         <v>188.69153932996946</v>
@@ -12007,10 +12011,10 @@
         <v>39</v>
       </c>
       <c r="E61" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G61" s="11">
         <v>182.69575062181065</v>
@@ -12094,10 +12098,10 @@
         <v>31</v>
       </c>
       <c r="E62" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G62" s="11">
         <v>531.54305475844831</v>
@@ -12181,10 +12185,10 @@
         <v>32</v>
       </c>
       <c r="E63" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G63" s="11">
         <v>248.27223544403248</v>
@@ -12268,10 +12272,10 @@
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G64" s="11">
         <v>379.06331929110854</v>
@@ -12355,10 +12359,10 @@
         <v>34</v>
       </c>
       <c r="E65" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G65" s="11">
         <v>767.39857745257484</v>
@@ -12442,10 +12446,10 @@
         <v>35</v>
       </c>
       <c r="E66" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G66" s="11">
         <v>182.36138970569357</v>
@@ -12529,10 +12533,10 @@
         <v>36</v>
       </c>
       <c r="E67" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G67" s="11">
         <v>952.15220355789074</v>
@@ -12616,10 +12620,10 @@
         <v>37</v>
       </c>
       <c r="E68" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G68" s="11">
         <v>298.45901892882301</v>
@@ -12703,10 +12707,10 @@
         <v>38</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G69" s="11">
         <v>189.15148318951131</v>
@@ -12790,10 +12794,10 @@
         <v>39</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G70" s="11">
         <v>193.91002951810009</v>
@@ -12881,9 +12885,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13033,26 +13040,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13076,9 +13072,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>